--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -306,7 +306,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,23 +314,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -338,10 +339,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1727,273 +1728,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E116795-5973-4B6E-887F-93F300CAB083}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0D05A8-12FF-4B29-B028-B7A8AC0DC92F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F59ED4-A424-4A19-BE2A-09123F3C7558}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="89">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,7 +74,13 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati generali</t>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Ora nascita</t>
@@ -331,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,10 +502,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -510,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -527,19 +533,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -547,16 +553,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -567,16 +573,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -587,16 +593,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -607,16 +613,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -627,16 +633,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -647,16 +653,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
@@ -667,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
@@ -687,16 +693,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -707,16 +713,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -727,16 +733,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -747,16 +753,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
@@ -767,16 +773,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -787,16 +793,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -807,16 +813,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -827,16 +833,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -847,16 +853,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -867,16 +873,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
@@ -887,16 +893,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
@@ -907,16 +913,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -927,16 +933,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
@@ -947,16 +953,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
@@ -967,19 +973,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -987,16 +993,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>32</v>
@@ -1007,16 +1013,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>34</v>
@@ -1027,16 +1033,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>36</v>
@@ -1047,16 +1053,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>38</v>
@@ -1067,16 +1073,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>40</v>
@@ -1087,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>42</v>
@@ -1107,16 +1113,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -1127,16 +1133,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>46</v>
@@ -1147,16 +1153,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>48</v>
@@ -1167,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>50</v>
@@ -1187,16 +1193,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>52</v>
@@ -1207,16 +1213,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>54</v>
@@ -1227,16 +1233,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>56</v>
@@ -1247,16 +1253,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>58</v>
@@ -1267,16 +1273,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>60</v>
@@ -1287,16 +1293,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>62</v>
@@ -1307,16 +1313,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>64</v>
@@ -1327,16 +1333,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>66</v>
@@ -1347,16 +1353,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>68</v>
@@ -1367,16 +1373,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>70</v>
@@ -1387,16 +1393,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>72</v>
@@ -1410,16 +1416,16 @@
         <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1427,16 +1433,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>32</v>
@@ -1447,19 +1453,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1467,16 +1473,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>80</v>
@@ -1487,19 +1493,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>35</v>
@@ -1516,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>36</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1547,16 +1553,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>25</v>
@@ -1567,19 +1573,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1587,16 +1593,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>40</v>
@@ -1607,16 +1613,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>42</v>
@@ -1627,16 +1633,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>44</v>
@@ -1647,16 +1653,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>46</v>
@@ -1667,16 +1673,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>48</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1707,21 +1713,41 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="89">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,12 +83,177 @@
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Soggetto</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Assegnazione cognome</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>sceltaCognome</t>
+  </si>
+  <si>
+    <t>Precisazione</t>
+  </si>
+  <si>
+    <t>precisazioneCognome</t>
+  </si>
+  <si>
     <t>Ora nascita</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>oraNascita</t>
   </si>
   <si>
@@ -96,171 +261,6 @@
   </si>
   <si>
     <t>minutoNascita</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Soggetto</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Assegnazione cognome</t>
-  </si>
-  <si>
-    <t>sceltaCognome</t>
-  </si>
-  <si>
-    <t>Precisazione</t>
-  </si>
-  <si>
-    <t>precisazioneCognome</t>
   </si>
   <si>
     <t>Stato di nascita - descrizione</t>
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -513,19 +513,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -533,19 +533,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -553,19 +553,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -573,19 +573,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -593,19 +593,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -613,19 +613,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -633,19 +633,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -653,19 +653,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -673,19 +673,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -693,19 +693,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -713,19 +713,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -733,19 +733,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -753,19 +753,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -773,19 +773,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -793,19 +793,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -813,19 +813,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -833,19 +833,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -853,19 +853,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -873,19 +873,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -893,19 +893,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -913,19 +913,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -933,19 +933,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -953,19 +953,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -973,19 +973,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -993,19 +993,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1013,19 +1013,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1033,19 +1033,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1053,19 +1053,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1093,19 +1093,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1113,19 +1113,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1133,19 +1133,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1153,19 +1153,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1173,19 +1173,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1213,19 +1213,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1253,19 +1253,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1273,19 +1273,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1313,19 +1313,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1353,19 +1353,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1373,19 +1373,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1393,19 +1393,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1473,19 +1473,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1493,19 +1493,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1533,19 +1533,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1593,19 +1593,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1613,19 +1613,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1653,19 +1653,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1693,61 +1693,21 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="98">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.madre</t>
   </si>
   <si>
@@ -228,6 +252,9 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -337,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,7 +374,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -499,13 +526,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -513,19 +540,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -533,19 +560,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -553,19 +580,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -573,19 +600,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -593,16 +620,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -613,16 +640,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -633,16 +660,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -653,16 +680,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -673,16 +700,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -693,16 +720,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -713,16 +740,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -733,16 +760,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -753,16 +780,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -773,16 +800,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -793,16 +820,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -813,16 +840,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -833,16 +860,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -853,16 +880,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -873,16 +900,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -893,16 +920,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -913,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -933,16 +960,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -953,19 +980,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -973,19 +1000,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -993,19 +1020,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1013,19 +1040,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1033,16 +1060,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
@@ -1053,16 +1080,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
@@ -1073,16 +1100,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
@@ -1093,16 +1120,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -1113,16 +1140,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -1133,16 +1160,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -1153,16 +1180,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
@@ -1173,16 +1200,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
@@ -1193,16 +1220,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
@@ -1213,16 +1240,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>53</v>
@@ -1233,16 +1260,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1253,16 +1280,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>57</v>
@@ -1273,16 +1300,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>59</v>
@@ -1293,16 +1320,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -1313,16 +1340,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -1333,16 +1360,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1353,16 +1380,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1373,16 +1400,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>69</v>
@@ -1393,19 +1420,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1413,19 +1440,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1433,19 +1460,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1453,19 +1480,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1473,19 +1500,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1493,19 +1520,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1513,19 +1540,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1533,19 +1560,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1553,19 +1580,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1573,19 +1600,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1593,19 +1620,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1613,19 +1640,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1633,16 +1660,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>43</v>
@@ -1653,16 +1680,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>45</v>
@@ -1673,19 +1700,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1693,21 +1720,101 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="100">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -242,7 +251,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -252,9 +261,6 @@
   </si>
   <si>
     <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -364,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -376,6 +382,7 @@
     <col min="4" max="4" width="19.6953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -397,25 +404,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -437,1385 +450,1595 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -382,7 +382,7 @@
     <col min="4" max="4" width="19.6953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.1.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.1.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -451,1594 +454,1594 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -86,12 +86,21 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Tipologia Nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>tipoNascitaSoggetto</t>
+  </si>
+  <si>
     <t>Data decorrenza</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
@@ -273,9 +282,6 @@
   </si>
   <si>
     <t>Assegnazione cognome</t>
-  </si>
-  <si>
-    <t>evento.datiDiNascita</t>
   </si>
   <si>
     <t>sceltaCognome</t>
@@ -373,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -560,10 +566,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -577,7 +583,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -586,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -600,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -609,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -623,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -632,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -646,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -655,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -666,7 +672,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -675,30 +681,30 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -707,504 +713,504 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>41</v>
@@ -1213,504 +1219,504 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>41</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>89</v>
@@ -1756,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>90</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>93</v>
@@ -1848,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>94</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2023,16 +2029,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>100</v>
@@ -2041,6 +2047,29 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="105">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -379,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -931,7 +937,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1023,7 +1029,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1138,7 +1144,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -1184,7 +1190,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
@@ -1201,19 +1207,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1224,19 +1230,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1247,19 +1253,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1270,19 +1276,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1299,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1322,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1345,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1368,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1710,22 +1716,22 @@
         <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -1733,39 +1739,39 @@
         <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>97</v>
@@ -1923,10 +1929,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2052,24 +2058,70 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Dichiarante</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1777,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
@@ -1800,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
@@ -1808,22 +1814,22 @@
         <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -1831,22 +1837,22 @@
         <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
@@ -1854,22 +1860,22 @@
         <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -1877,22 +1883,22 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
@@ -1900,22 +1906,22 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
@@ -1923,22 +1929,22 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -1946,22 +1952,22 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
@@ -1969,22 +1975,22 @@
         <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -1992,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -2001,13 +2007,13 @@
         <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -2015,7 +2021,7 @@
         <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
@@ -2024,13 +2030,13 @@
         <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -2038,7 +2044,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2047,13 +2053,13 @@
         <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -2061,7 +2067,7 @@
         <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
@@ -2070,13 +2076,13 @@
         <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -2084,44 +2090,573 @@
         <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Padre</t>
@@ -391,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1236,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1259,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1282,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1305,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1328,19 +1352,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1375,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1398,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1421,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1444,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1490,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1513,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1559,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1605,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1628,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1651,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1674,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1697,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1720,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1743,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1766,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1812,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1835,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1858,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1881,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1904,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1927,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1950,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1973,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1996,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2019,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2042,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2065,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2088,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2111,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2134,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2157,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2180,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2203,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2226,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2249,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2272,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2295,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2294,203 +2318,203 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2525,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2548,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2571,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2594,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2617,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2640,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2639,24 +2663,300 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -203,13 +209,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -783,7 +789,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -875,7 +881,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -990,7 +996,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>40</v>
@@ -1082,7 +1088,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>40</v>
@@ -1197,7 +1203,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -1243,7 +1249,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
@@ -1352,19 +1358,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1381,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1404,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1427,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1450,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1467,19 +1473,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1490,19 +1496,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1976,7 +1982,7 @@
         <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -1985,7 +1991,7 @@
         <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1999,16 +2005,16 @@
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2505,7 +2511,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
@@ -2514,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
@@ -2528,22 +2534,22 @@
         <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
@@ -2551,39 +2557,39 @@
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2640,13 +2646,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>26</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2761,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2830,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2853,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2939,24 +2945,116 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -697,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -1065,7 +1071,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1088,7 +1094,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>40</v>
@@ -1226,7 +1232,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
@@ -1272,7 +1278,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>40</v>
@@ -1381,19 +1387,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1404,19 +1410,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1427,19 +1433,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1450,19 +1456,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1479,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1502,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1525,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,7 +2034,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -2037,7 +2043,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,16 +2057,16 @@
         <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2580,7 +2586,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
@@ -2589,13 +2595,13 @@
         <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -2603,22 +2609,22 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
@@ -2626,39 +2632,39 @@
         <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2790,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2813,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2836,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2899,19 +2905,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2928,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2968,19 +2974,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3014,19 +3020,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3037,24 +3043,93 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1255,7 +1261,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
@@ -1301,7 +1307,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>40</v>
@@ -1410,19 +1416,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1439,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1462,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1485,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1508,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1554,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,7 +2086,7 @@
         <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2089,7 +2095,7 @@
         <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,16 +2109,16 @@
         <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,7 +2661,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
@@ -2664,13 +2670,13 @@
         <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
@@ -2678,22 +2684,22 @@
         <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99">
@@ -2701,39 +2707,39 @@
         <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3112,24 +3118,93 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Madre</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -749,62 +755,62 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
@@ -813,21 +819,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -836,12 +842,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>49</v>
@@ -850,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
@@ -859,12 +865,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
@@ -873,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -882,12 +888,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
@@ -896,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -905,21 +911,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -928,12 +934,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -942,7 +948,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -951,12 +957,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -965,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -974,12 +980,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -988,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -997,12 +1003,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1011,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1020,21 +1026,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1043,12 +1049,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1057,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1066,21 +1072,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1089,12 +1095,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1103,7 +1109,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1112,12 +1118,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1126,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1135,12 +1141,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1149,7 +1155,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1158,12 +1164,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1172,7 +1178,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1181,12 +1187,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1195,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1204,12 +1210,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1218,7 +1224,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1227,12 +1233,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1241,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1250,12 +1256,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1264,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1273,21 +1279,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1296,12 +1302,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1310,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1319,21 +1325,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1342,12 +1348,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1356,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1365,12 +1371,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1379,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1388,12 +1394,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1402,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1411,12 +1417,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1425,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1434,67 +1440,67 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>46</v>
@@ -1503,21 +1509,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -1526,12 +1532,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>49</v>
@@ -1540,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>50</v>
@@ -1549,12 +1555,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
@@ -1563,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1572,12 +1578,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
@@ -1586,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1595,21 +1601,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1618,12 +1624,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1632,7 +1638,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1641,12 +1647,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1655,7 +1661,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1664,12 +1670,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1678,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1687,12 +1693,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
@@ -1701,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1710,21 +1716,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1733,12 +1739,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -1747,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -1756,21 +1762,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -1779,12 +1785,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -1793,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1802,12 +1808,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
@@ -1816,7 +1822,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -1825,12 +1831,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -1839,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -1848,12 +1854,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
@@ -1862,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -1871,12 +1877,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -1885,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -1894,12 +1900,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -1908,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -1917,12 +1923,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -1931,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -1940,12 +1946,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -1954,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -1963,21 +1969,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -1986,12 +1992,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2000,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2009,21 +2015,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2032,12 +2038,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2046,7 +2052,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2055,12 +2061,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
@@ -2069,7 +2075,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2078,12 +2084,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2092,7 +2098,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2101,12 +2107,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
@@ -2115,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2124,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
@@ -2132,7 +2138,7 @@
         <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2141,50 +2147,50 @@
         <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>46</v>
@@ -2193,12 +2199,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>47</v>
@@ -2207,7 +2213,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>48</v>
@@ -2216,12 +2222,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>49</v>
@@ -2230,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>50</v>
@@ -2239,12 +2245,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>51</v>
@@ -2253,7 +2259,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2262,12 +2268,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
@@ -2276,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2285,12 +2291,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
@@ -2299,7 +2305,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2308,12 +2314,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2322,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2331,12 +2337,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2345,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2354,12 +2360,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2368,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2377,12 +2383,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
@@ -2391,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2400,12 +2406,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2414,7 +2420,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2423,12 +2429,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2437,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2446,12 +2452,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2460,7 +2466,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2469,12 +2475,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2483,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2492,12 +2498,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2506,7 +2512,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2515,12 +2521,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2529,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2538,12 +2544,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2552,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2561,12 +2567,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2575,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2584,12 +2590,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2598,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2607,12 +2613,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2621,7 +2627,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2630,12 +2636,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2644,7 +2650,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2653,12 +2659,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2667,7 +2673,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2676,12 +2682,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2690,7 +2696,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2699,12 +2705,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2713,7 +2719,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2722,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100">
@@ -2730,7 +2736,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
@@ -2739,30 +2745,30 @@
         <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2796,7 +2802,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>109</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2842,16 +2848,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>48</v>
@@ -2865,7 +2871,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>49</v>
@@ -2874,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>50</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2911,7 +2917,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>113</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2957,16 +2963,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>54</v>
@@ -2980,16 +2986,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>56</v>
@@ -3003,16 +3009,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>58</v>
@@ -3026,16 +3032,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>60</v>
@@ -3049,7 +3055,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>61</v>
@@ -3058,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>62</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>95</v>
@@ -3127,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>96</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>97</v>
@@ -3150,7 +3156,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>98</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>99</v>
@@ -3173,7 +3179,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>100</v>
@@ -3187,24 +3193,47 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Madre</t>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -755,62 +749,62 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
@@ -819,21 +813,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -842,12 +836,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>49</v>
@@ -856,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
@@ -865,12 +859,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
@@ -879,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -888,12 +882,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
@@ -902,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -911,21 +905,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -934,12 +928,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -948,7 +942,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -957,12 +951,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -971,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -980,12 +974,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -994,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1003,12 +997,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1017,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1026,21 +1020,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1049,12 +1043,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1063,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1072,21 +1066,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1095,12 +1089,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1109,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1118,12 +1112,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1132,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1141,12 +1135,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1155,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1164,12 +1158,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1178,7 +1172,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1187,12 +1181,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1201,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1210,12 +1204,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1224,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1233,12 +1227,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1247,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1256,12 +1250,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1270,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1279,21 +1273,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1302,12 +1296,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1316,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1325,21 +1319,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1348,12 +1342,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1362,7 +1356,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1371,12 +1365,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1385,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1394,12 +1388,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1408,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1417,12 +1411,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1431,7 +1425,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1440,67 +1434,67 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>46</v>
@@ -1509,21 +1503,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -1532,12 +1526,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>49</v>
@@ -1546,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>50</v>
@@ -1555,12 +1549,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
@@ -1569,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1578,12 +1572,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
@@ -1592,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1601,21 +1595,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1624,12 +1618,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1638,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1647,12 +1641,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1661,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1670,12 +1664,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1684,7 +1678,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1693,12 +1687,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
@@ -1707,7 +1701,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1716,21 +1710,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1739,12 +1733,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -1753,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -1762,21 +1756,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -1785,12 +1779,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -1799,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1808,12 +1802,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
@@ -1822,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -1831,12 +1825,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -1845,7 +1839,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -1854,12 +1848,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
@@ -1868,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -1877,12 +1871,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -1891,7 +1885,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -1900,12 +1894,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -1914,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -1923,12 +1917,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -1937,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -1946,12 +1940,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -1960,7 +1954,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -1969,21 +1963,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -1992,12 +1986,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2006,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2015,21 +2009,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2038,12 +2032,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2052,7 +2046,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2061,12 +2055,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
@@ -2075,7 +2069,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2084,12 +2078,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2098,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2107,12 +2101,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
@@ -2121,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2130,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -2138,7 +2132,7 @@
         <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2147,50 +2141,50 @@
         <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>46</v>
@@ -2199,12 +2193,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>47</v>
@@ -2213,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>48</v>
@@ -2222,12 +2216,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>49</v>
@@ -2236,7 +2230,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>50</v>
@@ -2245,12 +2239,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>51</v>
@@ -2259,7 +2253,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2268,12 +2262,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
@@ -2282,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2291,12 +2285,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
@@ -2305,7 +2299,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2314,12 +2308,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2328,7 +2322,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2337,12 +2331,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2351,7 +2345,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2360,12 +2354,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2374,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2383,12 +2377,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
@@ -2397,7 +2391,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2406,12 +2400,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2420,7 +2414,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2429,12 +2423,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2443,7 +2437,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2452,12 +2446,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2466,7 +2460,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2475,12 +2469,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2489,7 +2483,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2498,12 +2492,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2512,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2521,12 +2515,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2535,7 +2529,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2544,12 +2538,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2558,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2567,12 +2561,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2581,7 +2575,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2590,12 +2584,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2604,7 +2598,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2613,12 +2607,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2627,7 +2621,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2636,12 +2630,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2650,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2659,12 +2653,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2673,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2682,12 +2676,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2696,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2705,12 +2699,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2719,7 +2713,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2728,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
@@ -2736,7 +2730,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
@@ -2745,30 +2739,30 @@
         <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2773,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2802,7 +2796,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>109</v>
@@ -2825,19 +2819,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2848,16 +2842,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>48</v>
@@ -2871,7 +2865,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>49</v>
@@ -2880,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>50</v>
@@ -2894,19 +2888,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>113</v>
@@ -2940,19 +2934,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2963,16 +2957,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>54</v>
@@ -2986,16 +2980,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>56</v>
@@ -3009,16 +3003,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>58</v>
@@ -3032,16 +3026,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>60</v>
@@ -3055,7 +3049,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>61</v>
@@ -3064,7 +3058,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>62</v>
@@ -3078,19 +3072,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3095,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3124,7 +3118,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>95</v>
@@ -3133,7 +3127,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>96</v>
@@ -3147,7 +3141,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>97</v>
@@ -3156,7 +3150,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>98</v>
@@ -3170,7 +3164,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>99</v>
@@ -3179,7 +3173,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>100</v>
@@ -3193,47 +3187,24 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -439,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -876,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -899,7 +911,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
@@ -945,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>42</v>
@@ -968,7 +980,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>42</v>
@@ -1060,7 +1072,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>42</v>
@@ -1083,7 +1095,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>42</v>
@@ -1106,7 +1118,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>42</v>
@@ -1129,7 +1141,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1313,7 +1325,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>42</v>
@@ -1336,7 +1348,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>42</v>
@@ -1359,7 +1371,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>42</v>
@@ -1382,7 +1394,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -1468,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1526,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1549,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1572,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1595,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1618,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1687,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1733,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1779,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1802,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1825,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1871,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1894,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1917,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1940,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1963,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1986,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2009,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2032,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2055,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2078,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2101,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2124,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2147,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2170,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2193,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2216,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2239,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2262,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2285,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2308,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2331,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2354,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2377,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2400,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2423,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2446,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2469,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2492,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2515,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2538,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2561,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2584,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2607,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2630,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2653,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2676,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2699,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2745,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2756,157 +2768,157 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2929,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2952,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2975,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2998,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3021,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3044,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3067,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3090,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3113,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3136,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3159,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3182,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3205,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3216,24 +3228,162 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Tipologia Nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.datiDiNascita</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -513,63 +519,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -578,90 +584,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -670,21 +676,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -693,21 +699,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -716,12 +722,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -730,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -739,21 +745,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -762,21 +768,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -785,67 +791,67 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -854,12 +860,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>49</v>
@@ -868,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
@@ -877,21 +883,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -900,21 +906,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -923,12 +929,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -937,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -946,21 +952,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -969,21 +975,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -992,21 +998,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1015,21 +1021,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1038,21 +1044,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1061,21 +1067,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1084,21 +1090,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1107,12 +1113,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1121,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1130,21 +1136,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1153,21 +1159,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1176,21 +1182,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1199,21 +1205,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1222,21 +1228,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1245,21 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1268,21 +1274,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1291,21 +1297,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1314,21 +1320,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1337,21 +1343,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1360,12 +1366,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1374,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1383,21 +1389,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1406,21 +1412,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1429,21 +1435,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1452,21 +1458,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1475,21 +1481,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1498,21 +1504,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1521,67 +1527,67 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>48</v>
@@ -1590,12 +1596,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -1604,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>50</v>
@@ -1613,21 +1619,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>52</v>
@@ -1636,21 +1642,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1659,12 +1665,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -1673,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1682,21 +1688,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1705,21 +1711,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1728,21 +1734,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1751,21 +1757,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1774,21 +1780,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -1797,21 +1803,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -1820,21 +1826,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -1843,12 +1849,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -1857,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -1866,21 +1872,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -1889,21 +1895,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -1912,21 +1918,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -1935,21 +1941,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -1958,21 +1964,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -1981,21 +1987,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2004,21 +2010,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2027,21 +2033,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2050,21 +2056,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2073,21 +2079,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2096,12 +2102,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2110,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2119,21 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2142,21 +2148,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2165,21 +2171,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2188,21 +2194,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2211,21 +2217,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2234,21 +2240,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2257,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -2265,59 +2271,59 @@
         <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>48</v>
@@ -2326,21 +2332,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>50</v>
@@ -2349,21 +2355,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>52</v>
@@ -2372,21 +2378,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2395,21 +2401,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2418,21 +2424,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2441,21 +2447,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2464,21 +2470,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2487,21 +2493,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2510,21 +2516,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2533,21 +2539,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2556,21 +2562,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2579,21 +2585,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2602,21 +2608,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2625,21 +2631,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2648,21 +2654,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2671,21 +2677,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2694,21 +2700,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2717,21 +2723,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -2740,21 +2746,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -2763,21 +2769,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -2786,21 +2792,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -2809,21 +2815,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -2832,21 +2838,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -2855,21 +2861,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -2878,21 +2884,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -2901,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
@@ -2909,82 +2915,82 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>116</v>
@@ -2993,35 +2999,35 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>49</v>
@@ -3030,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>50</v>
@@ -3039,67 +3045,67 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>120</v>
@@ -3108,44 +3114,44 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>60</v>
@@ -3154,21 +3160,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>62</v>
@@ -3177,21 +3183,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -3200,21 +3206,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>66</v>
@@ -3223,21 +3229,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -3246,67 +3252,67 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>102</v>
@@ -3315,21 +3321,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>104</v>
@@ -3338,21 +3344,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>106</v>
@@ -3361,30 +3367,53 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Madre</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -819,62 +825,62 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
@@ -883,21 +889,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -906,21 +912,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -929,12 +935,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -943,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -952,21 +958,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -975,12 +981,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -989,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -998,12 +1004,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1012,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1021,21 +1027,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1044,12 +1050,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1058,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1067,12 +1073,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1081,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1090,12 +1096,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1104,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1113,12 +1119,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1127,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1136,21 +1142,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1159,12 +1165,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1173,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1182,21 +1188,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1205,12 +1211,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1219,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1228,12 +1234,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1242,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1251,12 +1257,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1265,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1274,12 +1280,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1288,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1297,12 +1303,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1311,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1320,12 +1326,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1334,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1343,12 +1349,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1357,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1366,12 +1372,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1380,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1389,21 +1395,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1412,12 +1418,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1426,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1435,21 +1441,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1458,12 +1464,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1472,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1481,12 +1487,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1495,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1504,12 +1510,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1518,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1527,12 +1533,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1541,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1550,67 +1556,67 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>50</v>
@@ -1619,21 +1625,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>52</v>
@@ -1642,21 +1648,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1665,12 +1671,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -1679,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1688,21 +1694,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1711,12 +1717,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -1725,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1734,12 +1740,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
@@ -1748,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1757,21 +1763,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1780,12 +1786,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -1794,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -1803,12 +1809,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -1817,7 +1823,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -1826,12 +1832,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -1840,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -1849,12 +1855,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -1863,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -1872,21 +1878,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -1895,12 +1901,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
@@ -1909,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -1918,21 +1924,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -1941,12 +1947,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -1955,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -1964,12 +1970,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
@@ -1978,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -1987,12 +1993,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2001,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2010,12 +2016,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
@@ -2024,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2033,12 +2039,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2047,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2056,12 +2062,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2070,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2079,12 +2085,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
@@ -2093,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2102,12 +2108,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2116,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2125,21 +2131,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2148,12 +2154,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2162,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2171,21 +2177,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2194,12 +2200,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2208,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2217,12 +2223,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
@@ -2231,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2240,12 +2246,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
@@ -2254,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2263,12 +2269,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
@@ -2277,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2286,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80">
@@ -2294,7 +2300,7 @@
         <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2303,50 +2309,50 @@
         <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>50</v>
@@ -2355,12 +2361,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>51</v>
@@ -2369,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>52</v>
@@ -2378,12 +2384,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>53</v>
@@ -2392,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2401,12 +2407,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
@@ -2415,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2424,12 +2430,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2438,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2447,12 +2453,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
@@ -2461,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2470,12 +2476,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
@@ -2484,7 +2490,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2493,12 +2499,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2507,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2516,12 +2522,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
@@ -2530,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2539,12 +2545,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2553,7 +2559,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2562,12 +2568,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
@@ -2576,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2585,12 +2591,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
@@ -2599,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2608,12 +2614,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
@@ -2622,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2631,12 +2637,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
@@ -2645,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2654,12 +2660,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -2668,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2677,12 +2683,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
@@ -2691,7 +2697,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2700,12 +2706,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
@@ -2714,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2723,12 +2729,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -2737,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -2746,12 +2752,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
@@ -2760,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -2769,12 +2775,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
@@ -2783,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -2792,12 +2798,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -2806,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -2815,12 +2821,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -2829,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -2838,12 +2844,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -2852,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -2861,12 +2867,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -2875,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -2884,12 +2890,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -2898,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -2907,12 +2913,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -2921,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -2930,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108">
@@ -2938,7 +2944,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2947,30 +2953,30 @@
         <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>117</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3050,16 +3056,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>52</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>121</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3165,16 +3171,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>62</v>
@@ -3188,16 +3194,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -3211,16 +3217,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>66</v>
@@ -3234,16 +3240,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -3257,7 +3263,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -3266,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>70</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>103</v>
@@ -3335,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>104</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>105</v>
@@ -3358,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>106</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>107</v>
@@ -3381,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>108</v>
@@ -3395,24 +3401,47 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>19</v>
       </c>
     </row>
